--- a/现金流量表/300919.xlsx
+++ b/现金流量表/300919.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -739,60 +739,62 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-03 00:00:00</t>
+          <t>2020-12-17 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-06-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>-250389541.05</v>
+        <v>-250642402.73</v>
       </c>
       <c r="P2" t="n">
-        <v>-361.2546686655</v>
+        <v>-92.76719467380001</v>
       </c>
       <c r="Q2" t="n">
-        <v>1350978258.91</v>
+        <v>4270700072.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1949.1517147652</v>
+        <v>1580.6617741537</v>
       </c>
       <c r="S2" t="n">
-        <v>94023929.18000001</v>
+        <v>204432168.31</v>
       </c>
       <c r="T2" t="n">
-        <v>135.6549608267</v>
+        <v>75.6639680622</v>
       </c>
       <c r="U2" t="n">
-        <v>-560659894.92</v>
+        <v>-604662318.52</v>
       </c>
       <c r="V2" t="n">
-        <v>-808.9036136415</v>
+        <v>-223.7962387972</v>
       </c>
       <c r="W2" t="n">
-        <v>300189.71</v>
+        <v>1542591.36</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4331048884</v>
+        <v>0.5709403973</v>
       </c>
       <c r="Y2" t="n">
-        <v>259960084.63</v>
+        <v>514082712.59</v>
       </c>
       <c r="Z2" t="n">
-        <v>375.0627675799</v>
+        <v>190.2711215574</v>
       </c>
       <c r="AA2" t="n">
-        <v>879572645.64</v>
+        <v>1123180658.18</v>
       </c>
       <c r="AB2" t="n">
-        <v>1269.0215547162</v>
+        <v>415.7090645332</v>
       </c>
       <c r="AC2" t="n">
-        <v>69311087.93000001</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
+        <v>270184307.73</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>87.681237337</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>

--- a/现金流量表/300919.xlsx
+++ b/现金流量表/300919.xlsx
@@ -744,56 +744,52 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>-250642402.73</v>
+        <v>-208465957.2</v>
       </c>
       <c r="P2" t="n">
-        <v>-92.76719467380001</v>
+        <v>-144.8091087105</v>
       </c>
       <c r="Q2" t="n">
-        <v>4270700072.05</v>
+        <v>1316698163.57</v>
       </c>
       <c r="R2" t="n">
-        <v>1580.6617741537</v>
+        <v>914.6332095092999</v>
       </c>
       <c r="S2" t="n">
-        <v>204432168.31</v>
+        <v>91088752.22</v>
       </c>
       <c r="T2" t="n">
-        <v>75.6639680622</v>
+        <v>63.2740290055</v>
       </c>
       <c r="U2" t="n">
-        <v>-604662318.52</v>
+        <v>-610248220.96</v>
       </c>
       <c r="V2" t="n">
-        <v>-223.7962387972</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1542591.36</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.5709403973</v>
-      </c>
+        <v>-423.9037498318</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>514082712.59</v>
+        <v>600983305.39</v>
       </c>
       <c r="Z2" t="n">
-        <v>190.2711215574</v>
+        <v>417.4679548272</v>
       </c>
       <c r="AA2" t="n">
-        <v>1123180658.18</v>
+        <v>962646175.25</v>
       </c>
       <c r="AB2" t="n">
-        <v>415.7090645332</v>
+        <v>668.6939993168</v>
       </c>
       <c r="AC2" t="n">
-        <v>270184307.73</v>
+        <v>143959146.67</v>
       </c>
       <c r="AD2" t="n">
-        <v>87.681237337</v>
+        <v>13540.6933165096</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
